--- a/planning/heuristicsResults.xlsx
+++ b/planning/heuristicsResults.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="1460" windowWidth="16580" windowHeight="16500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="non-heuristic search" sheetId="1" r:id="rId1"/>
     <sheet name="optimal path" sheetId="2" r:id="rId2"/>
     <sheet name="heuristic search" sheetId="3" r:id="rId3"/>
+    <sheet name="combined" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
   <si>
     <t>Breadth First Search</t>
   </si>
@@ -147,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +192,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF6600"/>
       <name val="Consolas"/>
     </font>
   </fonts>
@@ -284,7 +291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="64">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -349,8 +356,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -361,6 +396,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,17 +425,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="64">
+  <cellStyles count="92">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -423,6 +463,20 @@
     <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -455,6 +509,20 @@
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,7 +855,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G26"/>
+      <selection activeCell="I17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -797,15 +865,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickTop="1" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="46" thickTop="1">
       <c r="A2" s="3" t="s">
@@ -933,15 +1001,15 @@
     </row>
     <row r="9" spans="1:7" ht="16" thickBot="1"/>
     <row r="10" spans="1:7" ht="21" thickTop="1" thickBot="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="46" thickTop="1">
       <c r="A11" s="4" t="s">
@@ -1069,15 +1137,15 @@
     </row>
     <row r="19" spans="1:7" ht="16" thickBot="1"/>
     <row r="20" spans="1:7" ht="21" thickTop="1" thickBot="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="46" thickTop="1">
       <c r="A21" s="4" t="s">
@@ -1402,26 +1470,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="14" customWidth="1"/>
-    <col min="2" max="7" width="10.83203125" style="14"/>
+    <col min="1" max="1" width="20.1640625" style="8" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" thickTop="1" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="46" thickTop="1">
       <c r="A2" s="3" t="s">
@@ -1447,111 +1515,111 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>55</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>57</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>224</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="6">
         <v>3.9E-2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="6">
         <v>6</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="6">
         <v>41</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>43</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>170</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="6">
         <v>6</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="6">
         <v>11</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>13</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="6">
         <v>1.44</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="6">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="21" thickTop="1" thickBot="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="46" thickTop="1">
       <c r="A10" s="4" t="s">
@@ -1577,120 +1645,120 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="6">
         <v>4853</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="6">
         <v>4855</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>44041</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="6">
         <v>45.945999999999998</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="6">
         <v>9</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="6">
         <v>1506</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="6">
         <v>1508</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>13820</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="6">
         <v>13.389699999999999</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="6">
         <v>9</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="6">
         <v>86</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="6">
         <v>88</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>839</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="6">
         <v>155.179</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="6">
         <v>9</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="21" thickTop="1" thickBot="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="46" thickTop="1">
       <c r="A19" s="4" t="s">
@@ -1716,80 +1784,80 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="16">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="16">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <v>18223</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="6">
         <v>18225</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <v>159618</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="6">
         <v>385.649</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="6">
         <v>12</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="6">
         <v>5118</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="6">
         <v>5120</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="6">
         <v>45650</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="6">
         <v>87.03</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="6">
         <v>12</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="6">
         <v>404</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="6">
         <v>406</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <v>3718</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="6">
         <v>1068.75</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="6">
         <v>12</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1807,4 +1875,657 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" thickTop="1" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+    </row>
+    <row r="2" spans="1:7" ht="46" thickTop="1">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2">
+        <v>180</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="16">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <v>28</v>
+      </c>
+      <c r="E6" s="16">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="16">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2">
+        <v>224</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="6">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6">
+        <v>57</v>
+      </c>
+      <c r="D8" s="6">
+        <v>224</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6">
+        <v>170</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.44</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" thickBot="1"/>
+    <row r="13" spans="1:7" ht="21" thickTop="1" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" ht="46" thickTop="1">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3343</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4609</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30509</v>
+      </c>
+      <c r="E16" s="2">
+        <v>14.18</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>624</v>
+      </c>
+      <c r="C17" s="2">
+        <v>625</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5602</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="F17" s="2">
+        <v>619</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8982</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.59</v>
+      </c>
+      <c r="F18" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4853</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4855</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44041</v>
+      </c>
+      <c r="E19" s="2">
+        <v>49.024000000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4853</v>
+      </c>
+      <c r="C20" s="6">
+        <v>4855</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44041</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45.945999999999998</v>
+      </c>
+      <c r="F20" s="6">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1506</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1508</v>
+      </c>
+      <c r="D21" s="17">
+        <v>13820</v>
+      </c>
+      <c r="E21" s="17">
+        <v>13.389699999999999</v>
+      </c>
+      <c r="F21" s="17">
+        <v>9</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="6">
+        <v>86</v>
+      </c>
+      <c r="C22" s="6">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6">
+        <v>839</v>
+      </c>
+      <c r="E22" s="6">
+        <v>155.179</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" thickBot="1"/>
+    <row r="25" spans="1:7" ht="21" thickTop="1" thickBot="1">
+      <c r="A25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="46" thickTop="1">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2">
+        <v>14663</v>
+      </c>
+      <c r="C28" s="2">
+        <v>18098</v>
+      </c>
+      <c r="D28" s="2">
+        <v>129631</v>
+      </c>
+      <c r="E28" s="2">
+        <v>100.79300000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="2">
+        <v>408</v>
+      </c>
+      <c r="C29" s="2">
+        <v>409</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3364</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="F29" s="2">
+        <v>392</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5578</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5580</v>
+      </c>
+      <c r="D30" s="2">
+        <v>49150</v>
+      </c>
+      <c r="E30" s="2">
+        <v>116.48</v>
+      </c>
+      <c r="F30" s="2">
+        <v>22</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2">
+        <v>18223</v>
+      </c>
+      <c r="C31" s="2">
+        <v>18225</v>
+      </c>
+      <c r="D31" s="2">
+        <v>159618</v>
+      </c>
+      <c r="E31" s="2">
+        <v>417.16</v>
+      </c>
+      <c r="F31" s="2">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="6">
+        <v>18223</v>
+      </c>
+      <c r="C32" s="6">
+        <v>18225</v>
+      </c>
+      <c r="D32" s="6">
+        <v>159618</v>
+      </c>
+      <c r="E32" s="6">
+        <v>385.649</v>
+      </c>
+      <c r="F32" s="6">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="17">
+        <v>5118</v>
+      </c>
+      <c r="C33" s="17">
+        <v>5120</v>
+      </c>
+      <c r="D33" s="17">
+        <v>45650</v>
+      </c>
+      <c r="E33" s="17">
+        <v>87.03</v>
+      </c>
+      <c r="F33" s="17">
+        <v>12</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="6">
+        <v>404</v>
+      </c>
+      <c r="C34" s="6">
+        <v>406</v>
+      </c>
+      <c r="D34" s="6">
+        <v>3718</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1068.75</v>
+      </c>
+      <c r="F34" s="6">
+        <v>12</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A25:G25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>